--- a/biology/Botanique/Patzkea/Patzkea.xlsx
+++ b/biology/Botanique/Patzkea/Patzkea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patzkea est un genre de graminées de la sous-famille des Pooideae.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie et dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été isolé du reste du genre Festuca en 2010, sur la base d'une analyse phylogénétique, et nommé en l'honneur d'Erwin Patzke (d), spécialiste du genre Festuca. Patzkea paniculata est l'espèce type[1].
-Ses espèces sont nommées en français « Patzkée[2] » ou « Fétuque[2] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été isolé du reste du genre Festuca en 2010, sur la base d'une analyse phylogénétique, et nommé en l'honneur d'Erwin Patzke (d), spécialiste du genre Festuca. Patzkea paniculata est l'espèce type.
+Ses espèces sont nommées en français « Patzkée » ou « Fétuque ».
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est présent en Europe et en Afrique du Nord[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est présent en Europe et en Afrique du Nord,.
 </t>
         </is>
       </c>
@@ -600,24 +618,26 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon le Catalogue of Life                                   (5 avril 2024)[5], GBIF       (5 avril 2024)[3] et la World Flora Online (WFO)       (5 avril 2024)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le Catalogue of Life                                   (5 avril 2024), GBIF       (5 avril 2024) et la World Flora Online (WFO)       (5 avril 2024) :
 Patzkea coerulescens (Desf.) H.Scholz
 Patzkea durandoi (Clauson) G.H.Loos
 Patzkea paniculata (L.) G.H.Loos
 Patzkea patula (Desf.) H.Scholz
-Selon Plants of the World online (POWO)                (5 avril 2024)[4] :
+Selon Plants of the World online (POWO)                (5 avril 2024) :
 Patzkea durandoi (Clauson) G.H.Loos
 Patzkea paniculata (L.) G.H.Loos
 Patzkea patula (Desf.) H.Scholz
-Selon Tropicos                                           (5 avril 2024)[7] :
+Selon Tropicos                                           (5 avril 2024) :
 Patzkea coerulescens (Desf.) H.Scholz, 2010
 Patzkea durandoi (Clauson) G.H.Loos, 2010
 Patzkea paniculata (L.) G.H.Loos, 2010
 Patzkea patula (Desf.) H.Scholz, 2010
 Patzkea spadicea (L.) G.H.Loos, 2010
-En 2020, une nouvelle combinaison a été publiée[8] :
+En 2020, une nouvelle combinaison a été publiée :
 Patzkea baetica (Hack.) L.Sáez &amp; Aymerich (synonyme : Patzkea paniculata subsp. baetica (Hack.) H.Scholz)</t>
         </is>
       </c>
